--- a/documentation/project management/BOM.xlsx
+++ b/documentation/project management/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c605e1007b3ede4/Programming_Workspaces/git/Senior-Design-Team-9/documentation/project management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="8_{3B4AD109-387D-4740-8631-21B5FF541DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE7816D-6F50-4699-A6DF-43682A0427DA}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="8_{3B4AD109-387D-4740-8631-21B5FF541DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{188BC3C7-5F75-48F4-B2ED-5263715A7353}"/>
   <bookViews>
-    <workbookView xWindow="4910" yWindow="2430" windowWidth="21600" windowHeight="13610" xr2:uid="{9210D247-65F4-44BA-8D6E-18186809028C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{9210D247-65F4-44BA-8D6E-18186809028C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -811,6 +811,1739 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$53:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0023-49BD-B7BA-6B05BB315DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$53:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0023-49BD-B7BA-6B05BB315DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$53:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>238.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0023-49BD-B7BA-6B05BB315DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$53:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0023-49BD-B7BA-6B05BB315DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>30628</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C40F6B-6E90-32F1-6816-B96DBBFF07EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Blake Pearson" id="{D730B206-ACD1-4E7C-83CF-5CD9AF8ED95F}" userId="8c605e1007b3ede4" providerId="Windows Live"/>
@@ -1145,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB0825B-E44E-42DA-9FB8-0E9E7A0F851A}">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="84" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36:R36"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="96" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2553,7 +4286,7 @@
       <c r="Q35" s="50"/>
       <c r="R35" s="51"/>
       <c r="S35" s="12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T35" s="13"/>
       <c r="U35" s="10">
@@ -2562,7 +4295,7 @@
       <c r="V35" s="11"/>
       <c r="W35" s="12">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="12" t="s">
@@ -3164,12 +4897,168 @@
       <c r="V50" s="41"/>
       <c r="W50" s="42">
         <f>SUM(W14:X49)</f>
-        <v>708.82</v>
+        <v>808.82</v>
       </c>
       <c r="X50" s="42"/>
     </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="16">
+        <v>11.4</v>
+      </c>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="16">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D56" s="10">
+        <v>3</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12">
+        <v>15.97</v>
+      </c>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D57" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D58" s="10">
+        <v>4</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12">
+        <v>59.99</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D59" s="7">
+        <v>4</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D60" s="7">
+        <v>5</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="16">
+        <v>21.28</v>
+      </c>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D61" s="10">
+        <v>5</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12">
+        <v>238.8</v>
+      </c>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D62" s="7">
+        <v>5</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="16">
+        <v>35</v>
+      </c>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D63" s="10">
+        <v>5</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12">
+        <v>2</v>
+      </c>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="D64" s="7">
+        <v>6</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="16">
+        <v>50</v>
+      </c>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D65" s="10">
+        <v>6</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12">
+        <v>300</v>
+      </c>
+      <c r="G65" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="468">
+  <mergeCells count="494">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="W27:X27"/>
     <mergeCell ref="Y27:AE27"/>
     <mergeCell ref="AF27:AJ27"/>
@@ -3641,7 +5530,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
